--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21358DE4-DC67-1041-9EFA-A5479B1452D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31E492-A51D-0544-B9BD-DB48669649F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Part</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Potentiometer 10 kOhm 10% 1W</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/cree-inc/C4SMG-BJF-CQ0T0351/C4SMG-BJF-CQ0T0351-ND/4793586</t>
   </si>
   <si>
@@ -121,14 +118,34 @@
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/en/yageo/CFR-25JB-52-82R/82QBK-ND/3609</t>
+  </si>
+  <si>
+    <t>Board Sensor</t>
+  </si>
+  <si>
+    <t>Board Shield</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LED Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,11 +180,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBA565-8E41-F041-9F5D-E623558830D8}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,10 +661,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -745,10 +766,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -766,10 +787,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -786,6 +807,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -795,11 +822,29 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM(E2:E16)</f>
+        <v>25.87</v>
+      </c>
+      <c r="F17" t="s">
         <v>7</v>
       </c>
     </row>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31E492-A51D-0544-B9BD-DB48669649F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F041F3E-714A-5D40-AF7D-D8A279727336}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Part</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>LED Blue</t>
+  </si>
+  <si>
+    <t>Male x Pin Header</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBA565-8E41-F041-9F5D-E623558830D8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +571,7 @@
         <v>6.95</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
         <v>6.95</v>
       </c>
       <c r="F3" t="s">
@@ -808,8 +811,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15">
         <v>1</v>
       </c>
@@ -823,28 +827,59 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="3">
-        <f>SUM(E2:E16)</f>
+      <c r="E19" s="3">
+        <f>SUM(E2:E18)</f>
         <v>25.87</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F041F3E-714A-5D40-AF7D-D8A279727336}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C454D-EE65-8F4B-9FD4-F42EFBB9D606}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="1600" yWindow="1220" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Part</t>
   </si>
@@ -132,7 +132,10 @@
     <t>LED Blue</t>
   </si>
   <si>
-    <t>Male x Pin Header</t>
+    <t>Male 12 Pin Header</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/3m/929834-04-12-RK/3M156868-12-ND/1093797</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBA565-8E41-F041-9F5D-E623558830D8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +574,7 @@
         <v>6.95</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E17" si="0">D3*C3</f>
         <v>6.95</v>
       </c>
       <c r="F3" t="s">
@@ -813,13 +816,18 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>0.98</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -827,9 +835,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>31</v>
+      </c>
       <c r="C16">
         <v>1</v>
       </c>
@@ -843,7 +850,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -857,29 +864,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="3">
-        <f>SUM(E2:E18)</f>
-        <v>25.87</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E18" s="3">
+        <f>SUM(E2:E17)</f>
+        <v>26.85</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -898,6 +890,7 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
     <hyperlink ref="B8" r:id="rId12" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C454D-EE65-8F4B-9FD4-F42EFBB9D606}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B6D40-843B-EA48-B546-57874B89E426}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1220" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="38400" yWindow="8000" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,12 +51,6 @@
     <t>€</t>
   </si>
   <si>
-    <t>https://www.amazon.de/AmazonBasics-USB-2-0-Druckerkabel-Stecker-B-Stecker/dp/B00NH11KIK</t>
-  </si>
-  <si>
-    <t>USB A-&gt;B Cable 1,8m</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1BZ-4DP-2.5DSA/H11042-ND/1033172</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/en/3m/929834-04-12-RK/3M156868-12-ND/1093797</t>
+  </si>
+  <si>
+    <t>USB A-&gt;B Cable</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/stewart-connector/SC-2ABE006F/380-1425-ND/8544571</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,20 +562,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.95</v>
+        <v>2.13</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E17" si="0">D3*C3</f>
-        <v>6.95</v>
+        <v>2.13</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -865,11 +865,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>26.85</v>
+        <v>22.03</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>7</v>
@@ -883,14 +883,13 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{048FD562-7F79-C340-8652-7069D25BF76C}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{193E8E7F-3675-4848-9A4C-0F40BDB3093B}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{0177BB3C-02F2-B44C-8CD6-76CF543E5EB4}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{E48B3250-1676-5043-94B6-E2FECF18634B}"/>
-    <hyperlink ref="B2" r:id="rId8" xr:uid="{48F95F43-448E-9249-B320-0A7CD306B421}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{D755B847-08D1-3147-AA47-C0BECFC96FEA}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{B80CCFBA-A01A-FB4B-AF5F-63D68C4FBB61}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
-    <hyperlink ref="B8" r:id="rId12" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{48F95F43-448E-9249-B320-0A7CD306B421}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{D755B847-08D1-3147-AA47-C0BECFC96FEA}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{B80CCFBA-A01A-FB4B-AF5F-63D68C4FBB61}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B6D40-843B-EA48-B546-57874B89E426}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944DC32-F13C-B549-8DF1-BB55F1545FD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="8000" windowWidth="25600" windowHeight="16000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="-34900" yWindow="1320" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Part</t>
   </si>
@@ -57,9 +57,6 @@
     <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1B-4DS-2.5RC/H3810-ND/558521</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1B-2428SC/H3832-ND/558547</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/products/en?keywords=cny70</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/en/stewart-connector/SC-2ABE006F/380-1425-ND/8544571</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1B-2428SCF/H3832CT-ND/558620</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/tensility-international-corp/30-00389/T1288-1-ND/5270264</t>
+  </si>
+  <si>
+    <t>Kabel</t>
   </si>
 </sst>
 </file>
@@ -188,13 +194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,15 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBA565-8E41-F041-9F5D-E623558830D8}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,10 +570,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -574,7 +582,7 @@
         <v>2.13</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
         <v>2.13</v>
       </c>
       <c r="F3" t="s">
@@ -583,7 +591,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -604,7 +612,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -625,20 +633,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -646,20 +654,20 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1.1299999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.7</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -667,20 +675,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -688,20 +696,20 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -709,20 +717,20 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -730,20 +738,20 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -751,20 +759,20 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2.4900000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -772,20 +780,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.13</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -793,20 +801,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -814,20 +822,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.98</v>
+        <v>0.08</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.98</v>
+        <v>0.08</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -835,14 +843,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>0.98</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -850,46 +864,62 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(E2:E17)</f>
-        <v>22.03</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E19" s="3">
+        <f>SUM(E2:E18)</f>
+        <v>23.689999999999998</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{D245E08C-86E7-7E4E-B517-C6B1CD5ECEC6}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{40E3D9FE-CDB1-E34F-8522-DD052ACD2A91}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{E6E261F1-5681-494F-8896-AFC6390B8459}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{048FD562-7F79-C340-8652-7069D25BF76C}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{193E8E7F-3675-4848-9A4C-0F40BDB3093B}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{0177BB3C-02F2-B44C-8CD6-76CF543E5EB4}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{48F95F43-448E-9249-B320-0A7CD306B421}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{D755B847-08D1-3147-AA47-C0BECFC96FEA}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{B80CCFBA-A01A-FB4B-AF5F-63D68C4FBB61}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{D245E08C-86E7-7E4E-B517-C6B1CD5ECEC6}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{40E3D9FE-CDB1-E34F-8522-DD052ACD2A91}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{E6E261F1-5681-494F-8896-AFC6390B8459}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{193E8E7F-3675-4848-9A4C-0F40BDB3093B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{0177BB3C-02F2-B44C-8CD6-76CF543E5EB4}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{48F95F43-448E-9249-B320-0A7CD306B421}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{D755B847-08D1-3147-AA47-C0BECFC96FEA}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{B80CCFBA-A01A-FB4B-AF5F-63D68C4FBB61}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
+    <hyperlink ref="B3" r:id="rId13" xr:uid="{B3665F52-C6DA-6344-910A-AD9081737227}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{D188A38A-7286-FC41-ADB0-DE59CD3539A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944DC32-F13C-B549-8DF1-BB55F1545FD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E7E6B-F3A0-EF4A-A9ED-62B5AEF5F694}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34900" yWindow="1320" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -194,14 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,7 +519,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +661,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1.7</v>
       </c>
       <c r="E7">
@@ -920,6 +919,7 @@
     <hyperlink ref="B16" r:id="rId12" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
     <hyperlink ref="B3" r:id="rId13" xr:uid="{B3665F52-C6DA-6344-910A-AD9081737227}"/>
     <hyperlink ref="B6" r:id="rId14" xr:uid="{D188A38A-7286-FC41-ADB0-DE59CD3539A2}"/>
+    <hyperlink ref="B7" r:id="rId15" xr:uid="{B749963D-4B2B-B847-B1E0-F392A576A7AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E7E6B-F3A0-EF4A-A9ED-62B5AEF5F694}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D917E3F-86AD-624F-812B-3CE6C30E285A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34900" yWindow="1320" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>https://www.digikey.de/product-detail/en/yageo/FMP100JR-52-100R/100WCT-ND/2058886</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/tt-electronics-bi/93PR10KLF/987-1173-ND/2408751</t>
-  </si>
-  <si>
     <t>Male 4 Pin Header</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>680 kOhm 5% 1/4W</t>
   </si>
   <si>
-    <t>100 Ohm 5% 1W</t>
-  </si>
-  <si>
-    <t>Potentiometer 10 kOhm 10% 1W</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/cree-inc/C4SMG-BJF-CQ0T0351/C4SMG-BJF-CQ0T0351-ND/4793586</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Kabel</t>
+  </si>
+  <si>
+    <t>Potentiometer 10 kOhm 10% 1/2W</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=257332804&amp;uq=636588606439420778</t>
+  </si>
+  <si>
+    <t>100 Ohm 5% 1/2W</t>
   </si>
 </sst>
 </file>
@@ -519,12 +519,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
   </cols>
@@ -569,10 +569,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -767,11 +767,11 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -779,20 +779,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2.4900000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -893,11 +893,11 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>23.689999999999998</v>
+        <v>21.779999999999994</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>7</v>
@@ -912,14 +912,13 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{0177BB3C-02F2-B44C-8CD6-76CF543E5EB4}"/>
     <hyperlink ref="B2" r:id="rId6" xr:uid="{48F95F43-448E-9249-B320-0A7CD306B421}"/>
     <hyperlink ref="B12" r:id="rId7" xr:uid="{D755B847-08D1-3147-AA47-C0BECFC96FEA}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{B80CCFBA-A01A-FB4B-AF5F-63D68C4FBB61}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
-    <hyperlink ref="B3" r:id="rId13" xr:uid="{B3665F52-C6DA-6344-910A-AD9081737227}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{D188A38A-7286-FC41-ADB0-DE59CD3539A2}"/>
-    <hyperlink ref="B7" r:id="rId15" xr:uid="{B749963D-4B2B-B847-B1E0-F392A576A7AC}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{E21B3F40-1FE0-624F-9B6D-1BE352CB25FE}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{D385D04D-EA93-9149-8A94-54FE03F8B1D5}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{6562293E-0579-4046-AC2E-DE3EFF985D73}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{4A1A7652-B3E3-D64B-ACFA-EA4771B70053}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{B3665F52-C6DA-6344-910A-AD9081737227}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{D188A38A-7286-FC41-ADB0-DE59CD3539A2}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{B749963D-4B2B-B847-B1E0-F392A576A7AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D917E3F-86AD-624F-812B-3CE6C30E285A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3AF41-6564-C549-B8E8-29AB5F4A5350}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34900" yWindow="1320" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="3580" yWindow="2000" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LAB" sheetId="1" r:id="rId1"/>
+    <sheet name="Get-AG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Part</t>
   </si>
@@ -519,14 +520,16 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,15 +556,12 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>11.81</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>11.81</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -596,14 +596,14 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0.28000000000000003</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -617,14 +617,14 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0.19</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -638,14 +638,14 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0.08</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.96</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -680,14 +680,14 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1.1299999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
+        <v>6.7799999999999994</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -701,14 +701,14 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0.19</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -722,14 +722,14 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0.59</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>1.77</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -743,14 +743,14 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -764,14 +764,14 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0.08</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -785,14 +785,14 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0.64</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>1.92</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -806,14 +806,14 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0.13</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -827,14 +827,14 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0.08</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -848,14 +848,14 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>0.98</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.98</v>
+        <v>2.94</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -866,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>21.779999999999994</v>
+        <v>21.630000000000003</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>7</v>
@@ -923,4 +923,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C328F3-31EC-2A4D-B093-1EC71F681AEA}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>11.81</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>94.48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2.13</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
+        <v>17.04</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1.39</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>18.95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.7899999999999991</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1.78E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.7299999999999995</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.876</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>8.76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E3:E18" si="1">D17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3">
+        <f>SUM(E2:E18)</f>
+        <v>169.07999999999996</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{589C7767-3253-5645-B38D-34299D0D76DB}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{9CBC4C0E-F537-B942-9C20-F228646F3613}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{21214CD7-3DE8-2642-89EB-9447ACDDA84F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{028863B9-0798-9347-82AF-AAED23880E47}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{4E6E5FC3-EBA9-1B47-BBA7-74C05929F1BE}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{036C82DB-48E0-5941-A9BA-16BC36CBA1EB}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{B1573C03-5BE5-5B4E-BCC2-A7C85A00C79B}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{13049B8A-2F97-7D46-B519-3F7532D491B3}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{9D31D13F-4F52-E541-BCC1-489A72999F1E}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{67A4CDAB-788E-B241-BA14-C8CFF49550F0}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{8CB4B3FE-0B5D-F74A-880A-70D8FB9F49EC}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3AF41-6564-C549-B8E8-29AB5F4A5350}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD634E49-F8E0-F04A-8141-644ECE58FEDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2000" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="-34220" yWindow="2060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>https://www.amazon.de/Elegoo-Hauptplatine-ATmega328P-ATMEGA16U2-Kompatibel/dp/B01EWOE0UU/</t>
   </si>
   <si>
-    <t>€</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1BZ-4DP-2.5DSA/H11042-ND/1033172</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>Board Shield</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>LED Blue</t>
   </si>
   <si>
@@ -143,13 +131,31 @@
   </si>
   <si>
     <t>100 Ohm 5% 1/2W</t>
+  </si>
+  <si>
+    <t>Netto:</t>
+  </si>
+  <si>
+    <t>Brutto:</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Stückpreis</t>
+  </si>
+  <si>
+    <t>MwSt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +175,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,13 +209,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,390 +537,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBA565-8E41-F041-9F5D-E623558830D8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>11.81</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>D2*C2</f>
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>E2*F2+E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2.13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E18" si="0">D3*C3</f>
         <v>2.13</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G18" si="1">E3*F3+E3</f>
+        <v>2.5347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0.19</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67830000000000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.08</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1423999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1.7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0230000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>6.7799999999999994</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0681999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>0.19</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67830000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.59</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>1.77</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1063000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69019999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.08</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28559999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.64</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2847999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46410000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.08</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28559999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.98</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>2.94</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4985999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>12.419999999999998</v>
+      </c>
+      <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>12.419999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="D18" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4700000000000006</v>
+      </c>
+      <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>21.630000000000003</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
+        <v>41.519999999999996</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6">
+        <f>SUM(G2:G18)</f>
+        <v>45.629699999999993</v>
       </c>
     </row>
   </sheetData>
@@ -927,392 +1034,479 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C328F3-31EC-2A4D-B093-1EC71F681AEA}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>11.81</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>D2*C2</f>
         <v>94.48</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>E2*F2+E2</f>
+        <v>94.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2.13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E16" si="0">D3*C3</f>
         <v>17.04</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G18" si="1">E3*F3+E3</f>
+        <v>20.2776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>2.6500000000000004</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1535000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>1.7599999999999998</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0943999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6893999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1.39</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>6.9499999999999993</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2704999999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>18.95</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>1.6600000000000001</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>5.7899999999999991</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8900999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1.78E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0590999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57119999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>5.7299999999999995</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8186999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57119999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.876</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>8.76</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>10.4244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E3:E18" si="1">D17*C17</f>
+      <c r="D17" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:E18" si="2">D17*C17</f>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="D18" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>169.07999999999996</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
+        <v>222.11999999999995</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6">
+        <f>SUM(G2:G18)</f>
+        <v>236.29399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD634E49-F8E0-F04A-8141-644ECE58FEDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6984F47E-9346-4A4A-8795-FDFF1D1C60E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34220" yWindow="2060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Part</t>
   </si>
@@ -94,12 +94,6 @@
     <t>https://www.digikey.de/product-detail/en/yageo/CFR-25JB-52-82R/82QBK-ND/3609</t>
   </si>
   <si>
-    <t>Board Sensor</t>
-  </si>
-  <si>
-    <t>Board Shield</t>
-  </si>
-  <si>
     <t>LED Blue</t>
   </si>
   <si>
@@ -146,6 +140,18 @@
   </si>
   <si>
     <t>MwSt</t>
+  </si>
+  <si>
+    <t>Board Head</t>
+  </si>
+  <si>
+    <t>https://aisler.net/bid-office/my-project-repository/head</t>
+  </si>
+  <si>
+    <t>Board Base</t>
+  </si>
+  <si>
+    <t>https://aisler.net/bid-office/my-project-repository/base</t>
   </si>
 </sst>
 </file>
@@ -540,16 +546,14 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" customWidth="1"/>
+    <col min="3" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -560,16 +564,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -602,10 +606,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -680,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -702,10 +706,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -827,7 +831,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -852,10 +856,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -877,7 +881,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -927,10 +931,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -952,7 +956,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -974,7 +981,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -996,14 +1006,14 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
         <v>41.519999999999996</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G2:G18)</f>
@@ -1026,6 +1036,8 @@
     <hyperlink ref="B3" r:id="rId12" xr:uid="{B3665F52-C6DA-6344-910A-AD9081737227}"/>
     <hyperlink ref="B6" r:id="rId13" xr:uid="{D188A38A-7286-FC41-ADB0-DE59CD3539A2}"/>
     <hyperlink ref="B7" r:id="rId14" xr:uid="{B749963D-4B2B-B847-B1E0-F392A576A7AC}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{3D7F1949-EC31-514D-A0E6-06954BA36503}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{12D447F6-BB2F-C34B-A81F-241A69A8D7A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1037,18 +1049,14 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1059,16 +1067,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -1101,10 +1109,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1179,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1201,10 +1209,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1326,7 +1334,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1351,10 +1359,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1376,7 +1384,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -1426,10 +1434,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1451,62 +1459,68 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
         <v>4.1399999999999997</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ref="E17:E18" si="2">D17*C17</f>
-        <v>33.119999999999997</v>
+        <v>37.26</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>33.119999999999997</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>2.4900000000000002</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>19.920000000000002</v>
+        <v>22.410000000000004</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>19.920000000000002</v>
+        <v>22.410000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>222.11999999999995</v>
+        <v>228.74999999999994</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G2:G18)</f>
-        <v>236.29399999999998</v>
+        <v>242.92399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1525,6 +1539,8 @@
     <hyperlink ref="B3" r:id="rId12" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
     <hyperlink ref="B6" r:id="rId13" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
     <hyperlink ref="B7" r:id="rId14" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
